--- a/xlsx/阿什肯納茲猶太人_intext.xlsx
+++ b/xlsx/阿什肯納茲猶太人_intext.xlsx
@@ -29,7 +29,7 @@
     <t>en-Vilna Gaon</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿什肯納茲猶太人</t>
+    <t>体育运动_体育运动_犹太人大屠杀_阿什肯納茲猶太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%C2%B7%E8%AF%BA%E7%89%B9</t>
